--- a/ip.xlsx
+++ b/ip.xlsx
@@ -2,39 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script CCTV\Python\IP control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
-    <sheet name="NVR" sheetId="16" r:id="rId1"/>
-    <sheet name="NVR1" sheetId="1" r:id="rId2"/>
-    <sheet name="NVR2" sheetId="2" r:id="rId3"/>
-    <sheet name="NVR3" sheetId="3" r:id="rId4"/>
-    <sheet name="NVR4" sheetId="4" r:id="rId5"/>
-    <sheet name="NVR5" sheetId="5" r:id="rId6"/>
-    <sheet name="NVR6" sheetId="6" r:id="rId7"/>
-    <sheet name="NVR7" sheetId="7" r:id="rId8"/>
-    <sheet name="NVR8" sheetId="8" r:id="rId9"/>
-    <sheet name="NVR9" sheetId="9" r:id="rId10"/>
-    <sheet name="NVR10" sheetId="10" r:id="rId11"/>
-    <sheet name="NVR11" sheetId="11" r:id="rId12"/>
-    <sheet name="NVR13" sheetId="12" r:id="rId13"/>
-    <sheet name="NVR14" sheetId="13" r:id="rId14"/>
-    <sheet name="NVR15" sheetId="14" r:id="rId15"/>
-    <sheet name="NVR16" sheetId="15" r:id="rId16"/>
+    <sheet name="NVR" sheetId="1" r:id="rId1"/>
+    <sheet name="NVR1" sheetId="2" r:id="rId2"/>
+    <sheet name="NVR2" sheetId="3" r:id="rId3"/>
+    <sheet name="NVR3" sheetId="4" r:id="rId4"/>
+    <sheet name="NVR4" sheetId="5" r:id="rId5"/>
+    <sheet name="NVR5" sheetId="6" r:id="rId6"/>
+    <sheet name="NVR6" sheetId="7" r:id="rId7"/>
+    <sheet name="NVR7" sheetId="8" r:id="rId8"/>
+    <sheet name="NVR8" sheetId="9" r:id="rId9"/>
+    <sheet name="NVR9" sheetId="10" r:id="rId10"/>
+    <sheet name="NVR10" sheetId="11" r:id="rId11"/>
+    <sheet name="NVR11" sheetId="12" r:id="rId12"/>
+    <sheet name="NVR12" sheetId="13" r:id="rId13"/>
+    <sheet name="NVR13" sheetId="14" r:id="rId14"/>
+    <sheet name="NVR14" sheetId="15" r:id="rId15"/>
+    <sheet name="NVR15" sheetId="16" r:id="rId16"/>
+    <sheet name="NVR16" sheetId="17" r:id="rId17"/>
+    <sheet name="NVR17" sheetId="22" r:id="rId18"/>
+    <sheet name="NVR18" sheetId="19" r:id="rId19"/>
+    <sheet name="DI Sreen" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -48,9 +47,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>The 2 cameras were taken out from NVR15_2.248 belong to KK Finance</t>
         </r>
@@ -60,9 +61,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>The 2 cameras were taken out from NVR15_2.248 belong to KK Finance</t>
         </r>
@@ -73,7 +76,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="613">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>NVR1</t>
+  </si>
+  <si>
+    <t>192.168.2.168</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>192.168.2.253</t>
+  </si>
+  <si>
+    <t>NVR2</t>
+  </si>
+  <si>
+    <t>192.168.2.169</t>
+  </si>
+  <si>
+    <t>NVR3</t>
+  </si>
+  <si>
+    <t>192.168.2.170</t>
+  </si>
+  <si>
+    <t>1.0.0.0</t>
+  </si>
+  <si>
+    <t>NVR4</t>
+  </si>
+  <si>
+    <t>192.168.2.171</t>
+  </si>
+  <si>
+    <t>NVR5</t>
+  </si>
+  <si>
+    <t>192.168.2.172</t>
+  </si>
+  <si>
+    <t>NVR6</t>
+  </si>
+  <si>
+    <t>192.168.2.173</t>
+  </si>
+  <si>
+    <t>NVR7</t>
+  </si>
+  <si>
+    <t>192.168.2.177</t>
+  </si>
+  <si>
+    <t>NVR8</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>NVR9</t>
+  </si>
+  <si>
+    <t>192.168.3.2</t>
+  </si>
+  <si>
+    <t>NVR10</t>
+  </si>
+  <si>
+    <t>192.168.3.3</t>
+  </si>
+  <si>
+    <t>NVR11</t>
+  </si>
+  <si>
+    <t>192.168.3.4</t>
+  </si>
+  <si>
+    <t>NVR12</t>
+  </si>
+  <si>
+    <t>192.168.3.5</t>
+  </si>
+  <si>
+    <t>NVR13</t>
+  </si>
+  <si>
+    <t>192.168.2.247</t>
+  </si>
+  <si>
+    <t>NVR14</t>
+  </si>
+  <si>
+    <t>192.168.2.178</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>NVR15</t>
+  </si>
+  <si>
+    <t>192.168.2.248</t>
+  </si>
+  <si>
+    <t>NVR16</t>
+  </si>
+  <si>
+    <t>192.168.2.245</t>
+  </si>
+  <si>
+    <t>NVR17</t>
+  </si>
+  <si>
+    <t>192.168.2.166</t>
+  </si>
+  <si>
+    <t>NVR18</t>
+  </si>
+  <si>
+    <t>192.168.2.167</t>
+  </si>
   <si>
     <t>PTZ08_Cage</t>
   </si>
@@ -1458,10 +1596,10 @@
     <t>AHU</t>
   </si>
   <si>
-    <t>1192.168.2.201</t>
-  </si>
-  <si>
-    <t>2192.168.2.199</t>
+    <t>192.168.2.201</t>
+  </si>
+  <si>
+    <t>192.168.2.199</t>
   </si>
   <si>
     <t>PTZ MB509,506</t>
@@ -1533,28 +1671,43 @@
     <t>Store Behind Kitchen</t>
   </si>
   <si>
+    <t>192.168.25.2</t>
+  </si>
+  <si>
+    <t>Kitchen Souny Office</t>
+  </si>
+  <si>
+    <t>192.168.25.3</t>
+  </si>
+  <si>
+    <t>Kitchen OV02</t>
+  </si>
+  <si>
+    <t>192.168.254.4</t>
+  </si>
+  <si>
+    <t>BACK KIT OV1</t>
+  </si>
+  <si>
+    <t>192.168.4.42</t>
+  </si>
+  <si>
+    <t>Finance-OV03</t>
+  </si>
+  <si>
     <t>192.168.254.2</t>
   </si>
   <si>
-    <t>Kitchen Souny Office</t>
+    <t>Finance-OV01 take out</t>
   </si>
   <si>
     <t>192.168.254.3</t>
   </si>
   <si>
-    <t>Kitchen OV02</t>
-  </si>
-  <si>
-    <t>192.168.254.4</t>
-  </si>
-  <si>
-    <t>BACK KIT OV1</t>
-  </si>
-  <si>
-    <t>192.168.4.42</t>
-  </si>
-  <si>
-    <t>Finance-OV03</t>
+    <t>Finance-OV02 take out</t>
+  </si>
+  <si>
+    <t>Finance-OV5 take out</t>
   </si>
   <si>
     <t>192.168.254.5</t>
@@ -1563,7 +1716,7 @@
     <t>FINANDE COUNT DEDK</t>
   </si>
   <si>
-    <t>192.168.254.12</t>
+    <t>192.168.254.6</t>
   </si>
   <si>
     <t>KK Finance OV</t>
@@ -1578,15 +1731,6 @@
     <t>192.168.254.8</t>
   </si>
   <si>
-    <t>Finance-OV01 take out</t>
-  </si>
-  <si>
-    <t>Finance-OV02 take out</t>
-  </si>
-  <si>
-    <t>Finance-OV5 take out</t>
-  </si>
-  <si>
     <t>PTZ HT MainEnt</t>
   </si>
   <si>
@@ -1596,7 +1740,7 @@
     <t>MB809</t>
   </si>
   <si>
-    <t>192.162.2.89</t>
+    <t>192.168.2.89</t>
   </si>
   <si>
     <t>MB810</t>
@@ -1620,137 +1764,164 @@
     <t>192.168.2.198</t>
   </si>
   <si>
-    <t>192.168.220</t>
-  </si>
-  <si>
     <t>Finance OV05</t>
   </si>
   <si>
     <t>192.168.2.186</t>
   </si>
   <si>
-    <t>NVR1</t>
-  </si>
-  <si>
-    <t>NVR2</t>
-  </si>
-  <si>
-    <t>NVR3</t>
-  </si>
-  <si>
-    <t>NVR4</t>
-  </si>
-  <si>
-    <t>NVR5</t>
-  </si>
-  <si>
-    <t>NVR6</t>
-  </si>
-  <si>
-    <t>NVR7</t>
-  </si>
-  <si>
-    <t>NVR8</t>
-  </si>
-  <si>
-    <t>NVR9</t>
-  </si>
-  <si>
-    <t>NVR10</t>
-  </si>
-  <si>
-    <t>NVR11</t>
-  </si>
-  <si>
-    <t>NVR13</t>
-  </si>
-  <si>
-    <t>NVR14</t>
-  </si>
-  <si>
-    <t>NVR15</t>
-  </si>
-  <si>
-    <t>NVR16</t>
-  </si>
-  <si>
-    <t>192.168.2.168</t>
-  </si>
-  <si>
-    <t>255.0.0.0</t>
-  </si>
-  <si>
-    <t>192.168.2.253</t>
-  </si>
-  <si>
-    <t>192.168.2.169</t>
-  </si>
-  <si>
-    <t>192.168.2.170</t>
-  </si>
-  <si>
-    <t>1.0.0.0</t>
-  </si>
-  <si>
-    <t>192.168.2.171</t>
-  </si>
-  <si>
-    <t>192.168.2.172</t>
-  </si>
-  <si>
-    <t>192.168.2.173</t>
-  </si>
-  <si>
-    <t>192.168.2.177</t>
-  </si>
-  <si>
-    <t>192.168.3.1</t>
-  </si>
-  <si>
-    <t>192.168.3.2</t>
-  </si>
-  <si>
-    <t>192.168.3.3</t>
-  </si>
-  <si>
-    <t>192.168.3.4</t>
-  </si>
-  <si>
-    <t>192.168.2.247</t>
-  </si>
-  <si>
-    <t>192.168.2.178</t>
-  </si>
-  <si>
-    <t>255.255.255.0</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t>192.168.2.248</t>
-  </si>
-  <si>
-    <t>192.168.2.245</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Subnet</t>
-  </si>
-  <si>
-    <t>Gateway</t>
+    <t>DI Sreen</t>
+  </si>
+  <si>
+    <t>192.168.2.15</t>
+  </si>
+  <si>
+    <t>MB517.</t>
+  </si>
+  <si>
+    <t>192.168.2.93</t>
+  </si>
+  <si>
+    <t>192.168.2.94</t>
+  </si>
+  <si>
+    <t>192.168.2.95</t>
+  </si>
+  <si>
+    <t>192.168.3.7</t>
+  </si>
+  <si>
+    <t>192.168.3.10</t>
+  </si>
+  <si>
+    <t>192.168.3.12</t>
+  </si>
+  <si>
+    <t>192.168.3.19</t>
+  </si>
+  <si>
+    <t>192.168.3.11</t>
+  </si>
+  <si>
+    <t>192.168.3.48</t>
+  </si>
+  <si>
+    <t>192.168.3.49</t>
+  </si>
+  <si>
+    <t>192.168.3.21</t>
+  </si>
+  <si>
+    <t>192.168.3.22</t>
+  </si>
+  <si>
+    <t>192.168.3.27</t>
+  </si>
+  <si>
+    <t>192.168.3.34</t>
+  </si>
+  <si>
+    <t>192.168.3.18</t>
+  </si>
+  <si>
+    <t>192.168.3.36</t>
+  </si>
+  <si>
+    <t>192.168.3.24</t>
+  </si>
+  <si>
+    <t>192.168.3.20</t>
+  </si>
+  <si>
+    <t>192.168.3.38</t>
+  </si>
+  <si>
+    <t>192.168.3.28</t>
+  </si>
+  <si>
+    <t>192.168.3.29</t>
+  </si>
+  <si>
+    <t>192.168.3.37</t>
+  </si>
+  <si>
+    <t>192.168.3.35</t>
+  </si>
+  <si>
+    <t>192.168.3.33</t>
+  </si>
+  <si>
+    <t>192.168.3.32</t>
+  </si>
+  <si>
+    <t>192.168.3.31</t>
+  </si>
+  <si>
+    <t>192.168.3.25</t>
+  </si>
+  <si>
+    <t>192.168.3.26</t>
+  </si>
+  <si>
+    <t>192.168.3.30</t>
+  </si>
+  <si>
+    <t>192.168.3.14</t>
+  </si>
+  <si>
+    <t>192.168.3.16</t>
+  </si>
+  <si>
+    <t>192.168.3.17</t>
+  </si>
+  <si>
+    <t>192.168.3.15</t>
+  </si>
+  <si>
+    <t>192.168.2.63</t>
+  </si>
+  <si>
+    <t>192.168.2.115</t>
+  </si>
+  <si>
+    <t>192.168.2.75</t>
+  </si>
+  <si>
+    <t>192.168.2.38</t>
+  </si>
+  <si>
+    <t>Grand Ent. Car Porch OV</t>
+  </si>
+  <si>
+    <t>Chip Bank OV02</t>
+  </si>
+  <si>
+    <t>Chip Bank OV01</t>
+  </si>
+  <si>
+    <t>LT CAGE OV</t>
+  </si>
+  <si>
+    <t>SLOT SNAP1</t>
+  </si>
+  <si>
+    <t>Tae table</t>
+  </si>
+  <si>
+    <t>Dining table</t>
+  </si>
+  <si>
+    <t>Sofa Arear OV</t>
+  </si>
+  <si>
+    <t>PTZ Dining -Tea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1766,11 +1937,6 @@
     <font>
       <sz val="10"/>
       <name val="Sitka Small"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1795,12 +1961,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2083,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,220 +2264,276 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>556</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>528</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>546</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>529</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>538</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>548</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>551</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>534</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>535</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>552</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>535</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B20" t="s">
+        <v>570</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2333,244 +2555,244 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2805,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,236 +2814,236 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -2843,236 +3065,236 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3081,6 +3303,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B29"/>
   <sheetViews>
@@ -3094,212 +3328,212 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3308,12 +3542,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,36 +3556,36 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -3359,12 +3593,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,60 +3607,60 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -3434,12 +3668,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,260 +3682,707 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>566</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>532</v>
+      </c>
+      <c r="B27" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>530</v>
+      </c>
+      <c r="B28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>536</v>
+      </c>
+      <c r="B29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>517</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>608</v>
+      </c>
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>609</v>
+      </c>
+      <c r="B19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>610</v>
+      </c>
+      <c r="B20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>612</v>
+      </c>
+      <c r="B22" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -3723,236 +4404,487 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E26:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -3974,233 +4906,233 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4218,244 +5150,244 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4477,248 +5409,248 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4740,235 +5672,235 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
@@ -4991,243 +5923,243 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
@@ -5250,231 +6182,231 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
@@ -5497,244 +6429,244 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
